--- a/2des/bcd/aula03/exercicios/exercicio5.xlsx
+++ b/2des/bcd/aula03/exercicios/exercicio5.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9614F8A4-941E-4595-ADF0-C5DC92B553E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F481BA2-B62E-4849-BA7C-32600DBFF305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ped_entreg" sheetId="1" r:id="rId1"/>
+    <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -482,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +613,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -960,11 +969,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1323,76 +1334,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3051,5 +3069,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>